--- a/Size estimate.xlsx
+++ b/Size estimate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
@@ -654,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -835,6 +835,7 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="H8" s="11">
         <v>10000</v>
       </c>
@@ -1124,6 +1125,23 @@
       </c>
       <c r="C23">
         <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="H25">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="H26">
+        <f>6.3</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="H27" s="1">
+        <f>H26*H25</f>
+        <v>88200</v>
       </c>
     </row>
   </sheetData>
